--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il11-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Il11-Il6st.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2621896666666667</v>
+        <v>0.3032696666666667</v>
       </c>
       <c r="H2">
-        <v>0.786569</v>
+        <v>0.909809</v>
       </c>
       <c r="I2">
-        <v>0.1452658297700311</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="J2">
-        <v>0.145265829770031</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N2">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O2">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P2">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q2">
-        <v>9.625885557148779</v>
+        <v>24.99954377589656</v>
       </c>
       <c r="R2">
-        <v>86.63297001433899</v>
+        <v>224.995893983069</v>
       </c>
       <c r="S2">
-        <v>0.03024424379792502</v>
+        <v>0.05510266328589494</v>
       </c>
       <c r="T2">
-        <v>0.030244243797925</v>
+        <v>0.05510266328589493</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2621896666666667</v>
+        <v>0.3032696666666667</v>
       </c>
       <c r="H3">
-        <v>0.786569</v>
+        <v>0.909809</v>
       </c>
       <c r="I3">
-        <v>0.1452658297700311</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="J3">
-        <v>0.145265829770031</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>266.631241</v>
       </c>
       <c r="O3">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P3">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q3">
-        <v>23.30265206690322</v>
+        <v>26.95372252699655</v>
       </c>
       <c r="R3">
-        <v>209.723868602129</v>
+        <v>242.583502742969</v>
       </c>
       <c r="S3">
-        <v>0.07321623408728724</v>
+        <v>0.05940996003849146</v>
       </c>
       <c r="T3">
-        <v>0.07321623408728721</v>
+        <v>0.05940996003849145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2621896666666667</v>
+        <v>0.3032696666666667</v>
       </c>
       <c r="H4">
-        <v>0.786569</v>
+        <v>0.909809</v>
       </c>
       <c r="I4">
-        <v>0.1452658297700311</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="J4">
-        <v>0.145265829770031</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N4">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O4">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P4">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q4">
-        <v>9.575214956961888</v>
+        <v>13.02083390755745</v>
       </c>
       <c r="R4">
-        <v>86.17693461265699</v>
+        <v>117.187505168017</v>
       </c>
       <c r="S4">
-        <v>0.03008503829144553</v>
+        <v>0.02869982880253464</v>
       </c>
       <c r="T4">
-        <v>0.03008503829144552</v>
+        <v>0.02869982880253464</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2621896666666667</v>
+        <v>0.3032696666666667</v>
       </c>
       <c r="H5">
-        <v>0.786569</v>
+        <v>0.909809</v>
       </c>
       <c r="I5">
-        <v>0.1452658297700311</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="J5">
-        <v>0.145265829770031</v>
+        <v>0.150143210583919</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N5">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P5">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q5">
-        <v>3.730243615859444</v>
+        <v>3.144417875900333</v>
       </c>
       <c r="R5">
-        <v>33.572192542735</v>
+        <v>28.299760883103</v>
       </c>
       <c r="S5">
-        <v>0.01172031359337328</v>
+        <v>0.006930758456997931</v>
       </c>
       <c r="T5">
-        <v>0.01172031359337328</v>
+        <v>0.006930758456997929</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.903225</v>
       </c>
       <c r="I6">
-        <v>0.7208588418868903</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="J6">
-        <v>0.7208588418868902</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N6">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O6">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P6">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q6">
-        <v>47.76694371860834</v>
+        <v>107.2520103171917</v>
       </c>
       <c r="R6">
-        <v>429.902493467475</v>
+        <v>965.268092854725</v>
       </c>
       <c r="S6">
-        <v>0.1500823049194106</v>
+        <v>0.2363991704897262</v>
       </c>
       <c r="T6">
-        <v>0.1500823049194105</v>
+        <v>0.2363991704897261</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.903225</v>
       </c>
       <c r="I7">
-        <v>0.7208588418868903</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="J7">
-        <v>0.7208588418868902</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>266.631241</v>
       </c>
       <c r="O7">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P7">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q7">
         <v>115.6357472946917</v>
@@ -883,10 +883,10 @@
         <v>1040.721725652225</v>
       </c>
       <c r="S7">
-        <v>0.3633240507766664</v>
+        <v>0.2548781571420384</v>
       </c>
       <c r="T7">
-        <v>0.3633240507766662</v>
+        <v>0.2548781571420384</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.903225</v>
       </c>
       <c r="I8">
-        <v>0.7208588418868903</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="J8">
-        <v>0.7208588418868902</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N8">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O8">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P8">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q8">
-        <v>47.51549883149166</v>
+        <v>55.86144391715834</v>
       </c>
       <c r="R8">
-        <v>427.639489483425</v>
+        <v>502.7529952544251</v>
       </c>
       <c r="S8">
-        <v>0.1492922726234157</v>
+        <v>0.1231268203301718</v>
       </c>
       <c r="T8">
-        <v>0.1492922726234157</v>
+        <v>0.1231268203301718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.903225</v>
       </c>
       <c r="I9">
-        <v>0.7208588418868903</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="J9">
-        <v>0.7208588418868902</v>
+        <v>0.6441382016790526</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N9">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O9">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P9">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q9">
-        <v>18.51074748370833</v>
+        <v>13.490051718175</v>
       </c>
       <c r="R9">
-        <v>166.596727353375</v>
+        <v>121.410465463575</v>
       </c>
       <c r="S9">
-        <v>0.05816021356739768</v>
+        <v>0.02973405371711618</v>
       </c>
       <c r="T9">
-        <v>0.05816021356739767</v>
+        <v>0.02973405371711617</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.241631</v>
+        <v>0.4155246666666666</v>
       </c>
       <c r="H10">
-        <v>0.724893</v>
+        <v>1.246574</v>
       </c>
       <c r="I10">
-        <v>0.1338753283430788</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="J10">
-        <v>0.1338753283430787</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>36.71344366666667</v>
+        <v>82.43338033333333</v>
       </c>
       <c r="N10">
-        <v>110.140331</v>
+        <v>247.300141</v>
       </c>
       <c r="O10">
-        <v>0.2081992981130139</v>
+        <v>0.3670006993429558</v>
       </c>
       <c r="P10">
-        <v>0.2081992981130138</v>
+        <v>0.3670006993429557</v>
       </c>
       <c r="Q10">
-        <v>8.871106106620335</v>
+        <v>34.25310288521488</v>
       </c>
       <c r="R10">
-        <v>79.839954959583</v>
+        <v>308.2779259669339</v>
       </c>
       <c r="S10">
-        <v>0.02787274939567827</v>
+        <v>0.07549886556733466</v>
       </c>
       <c r="T10">
-        <v>0.02787274939567826</v>
+        <v>0.07549886556733465</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.241631</v>
+        <v>0.4155246666666666</v>
       </c>
       <c r="H11">
-        <v>0.724893</v>
+        <v>1.246574</v>
       </c>
       <c r="I11">
-        <v>0.1338753283430788</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="J11">
-        <v>0.1338753283430787</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>266.631241</v>
       </c>
       <c r="O11">
-        <v>0.5040155293450301</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="P11">
-        <v>0.50401552934503</v>
+        <v>0.3956886215996139</v>
       </c>
       <c r="Q11">
-        <v>21.47545779802367</v>
+        <v>36.93061917981488</v>
       </c>
       <c r="R11">
-        <v>193.279120182213</v>
+        <v>332.3755726183339</v>
       </c>
       <c r="S11">
-        <v>0.06747524448107657</v>
+        <v>0.08140050441908404</v>
       </c>
       <c r="T11">
-        <v>0.06747524448107653</v>
+        <v>0.08140050441908404</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.241631</v>
+        <v>0.4155246666666666</v>
       </c>
       <c r="H12">
-        <v>0.724893</v>
+        <v>1.246574</v>
       </c>
       <c r="I12">
-        <v>0.1338753283430788</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="J12">
-        <v>0.1338753283430787</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.52018433333333</v>
+        <v>42.93483766666667</v>
       </c>
       <c r="N12">
-        <v>109.560553</v>
+        <v>128.804513</v>
       </c>
       <c r="O12">
-        <v>0.20710333833547</v>
+        <v>0.1911496942879982</v>
       </c>
       <c r="P12">
-        <v>0.2071033383354699</v>
+        <v>0.1911496942879981</v>
       </c>
       <c r="Q12">
-        <v>8.824408660647666</v>
+        <v>17.84048410982911</v>
       </c>
       <c r="R12">
-        <v>79.41967794582899</v>
+        <v>160.564356988462</v>
       </c>
       <c r="S12">
-        <v>0.02772602742060877</v>
+        <v>0.03932304515529172</v>
       </c>
       <c r="T12">
-        <v>0.02772602742060876</v>
+        <v>0.03932304515529172</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.241631</v>
+        <v>0.4155246666666666</v>
       </c>
       <c r="H13">
-        <v>0.724893</v>
+        <v>1.246574</v>
       </c>
       <c r="I13">
-        <v>0.1338753283430788</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="J13">
-        <v>0.1338753283430787</v>
+        <v>0.2057185877370285</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>14.22727166666667</v>
+        <v>10.368389</v>
       </c>
       <c r="N13">
-        <v>42.681815</v>
+        <v>31.105167</v>
       </c>
       <c r="O13">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="P13">
-        <v>0.08068183420648613</v>
+        <v>0.04616098476943217</v>
       </c>
       <c r="Q13">
-        <v>3.437749880088333</v>
+        <v>4.308321383095333</v>
       </c>
       <c r="R13">
-        <v>30.939748920795</v>
+        <v>38.77489244785799</v>
       </c>
       <c r="S13">
-        <v>0.01080130704571517</v>
+        <v>0.009496172595318068</v>
       </c>
       <c r="T13">
-        <v>0.01080130704571517</v>
+        <v>0.009496172595318068</v>
       </c>
     </row>
   </sheetData>
